--- a/ipl17.xlsx
+++ b/ipl17.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9107" windowHeight="7987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9105" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="3" r:id="rId1"/>
     <sheet name="Complete" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="31">
   <si>
     <t>Match</t>
   </si>
@@ -121,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.8203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.9375" style="1"/>
-    <col min="5" max="5" width="14.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.9375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -484,7 +482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -513,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -542,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -571,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -600,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -629,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -658,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -687,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -716,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -745,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -774,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -803,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -832,7 +830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -861,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -890,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -919,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -948,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -977,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1180,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1267,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1470,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1644,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1673,7 +1671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1731,7 +1729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1760,7 +1758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1818,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1876,7 +1874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2050,7 +2048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2077,6 +2075,35 @@
       </c>
       <c r="I56" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2">
+        <v>161</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <v>151</v>
+      </c>
+      <c r="G57" s="2">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2088,16 +2115,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.8203125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2202,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2237,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2272,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2307,7 +2334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2342,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2377,7 +2404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2412,7 +2439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2447,7 +2474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2482,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2517,7 +2544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2552,7 +2579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2587,7 +2614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2657,7 +2684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2727,7 +2754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2762,7 +2789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2797,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2867,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2902,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2937,7 +2964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2972,7 +2999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3042,7 +3069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3077,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3126,7 +3153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3196,7 +3223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3231,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3266,7 +3293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3406,7 +3433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3441,7 +3468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3476,7 +3503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3511,7 +3538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3546,7 +3573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3581,7 +3608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3616,7 +3643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3651,7 +3678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3686,7 +3713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3721,7 +3748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3756,7 +3783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3791,7 +3818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3826,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3861,7 +3888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3896,7 +3923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3931,7 +3958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3966,7 +3993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>

--- a/ipl17.xlsx
+++ b/ipl17.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9105" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9107" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="3" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,19 +441,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="6.05859375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -482,7 +484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -511,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -540,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -569,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -598,7 +600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -627,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -685,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -714,7 +716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -743,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -772,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -801,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -830,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -859,7 +861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -888,7 +890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -913,11 +915,11 @@
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -928,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -946,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -975,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1758,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2119,12 +2121,12 @@
       <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3538,7 +3540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3608,7 +3610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3993,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
